--- a/양식샘플-테이블명세-양식.xlsx
+++ b/양식샘플-테이블명세-양식.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KMS505203\Documents\workspace\DBMS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5FE942A-B211-4715-8B25-079447F90092}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2406CF92-5EBC-4F4C-9626-21D4AE2F2308}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="학생정보" sheetId="2" r:id="rId1"/>
@@ -804,6 +804,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -822,6 +825,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -830,12 +836,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1182,8 +1182,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:L35"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6:H8"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H9" sqref="G6:H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1841,20 +1841,20 @@
       <c r="C2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="32" t="s">
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="32"/>
-      <c r="J2" s="37">
+      <c r="I2" s="33"/>
+      <c r="J2" s="35">
         <v>45307</v>
       </c>
-      <c r="K2" s="34"/>
+      <c r="K2" s="36"/>
       <c r="L2" s="18" t="s">
         <v>10</v>
       </c>
@@ -1866,34 +1866,34 @@
       <c r="C3" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="33" t="s">
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="33"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="36"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="38"/>
       <c r="L3" s="17"/>
     </row>
     <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="30"/>
     </row>
     <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
@@ -2254,7 +2254,7 @@
     </row>
     <row r="27" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="22"/>
-      <c r="C27" s="38">
+      <c r="C27" s="28">
         <v>45307</v>
       </c>
       <c r="D27" s="23"/>
@@ -2391,7 +2391,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29125390-0012-4A73-B25A-FF044AAD153E}">
   <dimension ref="B1:L35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -3050,20 +3050,20 @@
       <c r="C2" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="32" t="s">
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="32"/>
-      <c r="J2" s="37">
+      <c r="I2" s="33"/>
+      <c r="J2" s="35">
         <v>45307</v>
       </c>
-      <c r="K2" s="34"/>
+      <c r="K2" s="36"/>
       <c r="L2" s="18" t="s">
         <v>10</v>
       </c>
@@ -3075,34 +3075,34 @@
       <c r="C3" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="33" t="s">
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="33"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="36"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="38"/>
       <c r="L3" s="17"/>
     </row>
     <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="30"/>
     </row>
     <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
@@ -3439,7 +3439,7 @@
     </row>
     <row r="27" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="22"/>
-      <c r="C27" s="38">
+      <c r="C27" s="28">
         <v>45307</v>
       </c>
       <c r="D27" s="23"/>
@@ -3558,12 +3558,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="C4:L4"/>
     <mergeCell ref="D2:G3"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="C4:L4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
